--- a/team_specific_matrix/Merrimack_A.xlsx
+++ b/team_specific_matrix/Merrimack_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1811023622047244</v>
+        <v>0.1918238993710692</v>
       </c>
       <c r="C2">
-        <v>0.5708661417322834</v>
+        <v>0.5471698113207547</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.003937007874015748</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003937007874015748</v>
+        <v>0.003144654088050315</v>
       </c>
       <c r="P2">
-        <v>0.1614173228346457</v>
+        <v>0.1540880503144654</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.07874015748031496</v>
+        <v>0.09748427672955975</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.01986754966887417</v>
+        <v>0.02197802197802198</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04635761589403974</v>
+        <v>0.04395604395604396</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7218543046357616</v>
+        <v>0.7197802197802198</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2119205298013245</v>
+        <v>0.2142857142857143</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6153846153846154</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3846153846153846</v>
+        <v>0.3142857142857143</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.09248554913294797</v>
+        <v>0.08095238095238096</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.005780346820809248</v>
+        <v>0.004761904761904762</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.05202312138728324</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2138728323699422</v>
+        <v>0.2380952380952381</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01734104046242774</v>
+        <v>0.01904761904761905</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1329479768786127</v>
+        <v>0.1476190476190476</v>
       </c>
       <c r="R6">
-        <v>0.07514450867052024</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="S6">
-        <v>0.4104046242774567</v>
+        <v>0.3857142857142857</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1188811188811189</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03496503496503497</v>
+        <v>0.03550295857988166</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.03496503496503497</v>
+        <v>0.02958579881656805</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1188811188811189</v>
+        <v>0.1183431952662722</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01398601398601399</v>
+        <v>0.01183431952662722</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1398601398601399</v>
+        <v>0.1420118343195266</v>
       </c>
       <c r="R7">
-        <v>0.08391608391608392</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="S7">
-        <v>0.4545454545454545</v>
+        <v>0.4674556213017751</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08285714285714285</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008571428571428572</v>
+        <v>0.009174311926605505</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.04285714285714286</v>
+        <v>0.05045871559633028</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09714285714285714</v>
+        <v>0.09403669724770643</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.02285714285714286</v>
+        <v>0.01834862385321101</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1857142857142857</v>
+        <v>0.1880733944954129</v>
       </c>
       <c r="R8">
-        <v>0.07428571428571429</v>
+        <v>0.07798165137614679</v>
       </c>
       <c r="S8">
-        <v>0.4857142857142857</v>
+        <v>0.4839449541284404</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1282051282051282</v>
+        <v>0.1133333333333333</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.008547008547008548</v>
+        <v>0.02</v>
       </c>
       <c r="E9">
-        <v>0.008547008547008548</v>
+        <v>0.006666666666666667</v>
       </c>
       <c r="F9">
-        <v>0.05982905982905983</v>
+        <v>0.06666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1196581196581197</v>
+        <v>0.12</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.008547008547008548</v>
+        <v>0.01333333333333333</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1623931623931624</v>
+        <v>0.1733333333333333</v>
       </c>
       <c r="R9">
-        <v>0.09401709401709402</v>
+        <v>0.1066666666666667</v>
       </c>
       <c r="S9">
-        <v>0.4102564102564102</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1212704523580366</v>
+        <v>0.1281446540880503</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0163618864292589</v>
+        <v>0.01650943396226415</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.0875842155919153</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.07795957651588066</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01251203079884504</v>
+        <v>0.0110062893081761</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1973051010587103</v>
+        <v>0.2075471698113208</v>
       </c>
       <c r="R10">
-        <v>0.08180943214629452</v>
+        <v>0.07783018867924528</v>
       </c>
       <c r="S10">
-        <v>0.4051973051010587</v>
+        <v>0.3922955974842767</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1612903225806452</v>
+        <v>0.1565836298932384</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1048387096774194</v>
+        <v>0.1067615658362989</v>
       </c>
       <c r="K11">
-        <v>0.2137096774193548</v>
+        <v>0.2135231316725979</v>
       </c>
       <c r="L11">
-        <v>0.5</v>
+        <v>0.501779359430605</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02016129032258064</v>
+        <v>0.02135231316725979</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7286821705426356</v>
+        <v>0.7266666666666667</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1550387596899225</v>
+        <v>0.1466666666666667</v>
       </c>
       <c r="K12">
-        <v>0.0310077519379845</v>
+        <v>0.02666666666666667</v>
       </c>
       <c r="L12">
-        <v>0.0310077519379845</v>
+        <v>0.05333333333333334</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.05426356589147287</v>
+        <v>0.04666666666666667</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.6666666666666666</v>
+        <v>0.696969696969697</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2916666666666667</v>
+        <v>0.2424242424242424</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.04166666666666666</v>
+        <v>0.06060606060606061</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.01176470588235294</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1647058823529412</v>
+        <v>0.1804878048780488</v>
       </c>
       <c r="I15">
-        <v>0.06470588235294118</v>
+        <v>0.06829268292682927</v>
       </c>
       <c r="J15">
-        <v>0.4411764705882353</v>
+        <v>0.424390243902439</v>
       </c>
       <c r="K15">
-        <v>0.04705882352941176</v>
+        <v>0.04390243902439024</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.005882352941176471</v>
+        <v>0.00975609756097561</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.03529411764705882</v>
+        <v>0.04878048780487805</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2294117647058823</v>
+        <v>0.2146341463414634</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01197604790419162</v>
+        <v>0.009950248756218905</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1676646706586826</v>
+        <v>0.1890547263681592</v>
       </c>
       <c r="I16">
-        <v>0.05389221556886228</v>
+        <v>0.05472636815920398</v>
       </c>
       <c r="J16">
-        <v>0.3832335329341318</v>
+        <v>0.3980099502487562</v>
       </c>
       <c r="K16">
-        <v>0.1317365269461078</v>
+        <v>0.1144278606965174</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>0.004975124378109453</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04790419161676647</v>
+        <v>0.03980099502487562</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.2035928143712575</v>
+        <v>0.1890547263681592</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01204819277108434</v>
+        <v>0.009411764705882352</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1716867469879518</v>
+        <v>0.1623529411764706</v>
       </c>
       <c r="I17">
-        <v>0.07530120481927711</v>
+        <v>0.08470588235294117</v>
       </c>
       <c r="J17">
-        <v>0.4518072289156627</v>
+        <v>0.4588235294117647</v>
       </c>
       <c r="K17">
-        <v>0.08433734939759036</v>
+        <v>0.08</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.009036144578313253</v>
+        <v>0.007058823529411765</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06626506024096386</v>
+        <v>0.07294117647058823</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1295180722891566</v>
+        <v>0.1247058823529412</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.0136986301369863</v>
+        <v>0.01129943502824859</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1232876712328767</v>
+        <v>0.1412429378531073</v>
       </c>
       <c r="I18">
-        <v>0.0410958904109589</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="J18">
-        <v>0.589041095890411</v>
+        <v>0.5819209039548022</v>
       </c>
       <c r="K18">
-        <v>0.06164383561643835</v>
+        <v>0.05084745762711865</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.0273972602739726</v>
+        <v>0.02259887005649718</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03424657534246575</v>
+        <v>0.03954802259887006</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1095890410958904</v>
+        <v>0.1129943502824859</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01255605381165919</v>
+        <v>0.01415797317436662</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2008968609865471</v>
+        <v>0.2034277198211625</v>
       </c>
       <c r="I19">
-        <v>0.05829596412556054</v>
+        <v>0.06035767511177347</v>
       </c>
       <c r="J19">
-        <v>0.3910313901345291</v>
+        <v>0.3882265275707898</v>
       </c>
       <c r="K19">
-        <v>0.1076233183856502</v>
+        <v>0.1028315946348733</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01524663677130045</v>
+        <v>0.01788375558867362</v>
       </c>
       <c r="N19">
-        <v>0.002690582959641256</v>
+        <v>0.002980625931445604</v>
       </c>
       <c r="O19">
-        <v>0.07713004484304933</v>
+        <v>0.07377049180327869</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1345291479820628</v>
+        <v>0.1363636363636364</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Merrimack_A.xlsx
+++ b/team_specific_matrix/Merrimack_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1918238993710692</v>
+        <v>0.1861861861861862</v>
       </c>
       <c r="C2">
-        <v>0.5471698113207547</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006289308176100629</v>
+        <v>0.006006006006006006</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003144654088050315</v>
+        <v>0.003003003003003003</v>
       </c>
       <c r="P2">
-        <v>0.1540880503144654</v>
+        <v>0.1561561561561562</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09748427672955975</v>
+        <v>0.09309309309309309</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02197802197802198</v>
+        <v>0.02072538860103627</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04395604395604396</v>
+        <v>0.04145077720207254</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7197802197802198</v>
+        <v>0.7150259067357513</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2142857142857143</v>
+        <v>0.2227979274611399</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6857142857142857</v>
+        <v>0.7105263157894737</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3142857142857143</v>
+        <v>0.2894736842105263</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.08095238095238096</v>
+        <v>0.07894736842105263</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.004761904761904762</v>
+        <v>0.008771929824561403</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04761904761904762</v>
+        <v>0.04385964912280702</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2380952380952381</v>
+        <v>0.2280701754385965</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01904761904761905</v>
+        <v>0.01754385964912281</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1476190476190476</v>
+        <v>0.1535087719298246</v>
       </c>
       <c r="R6">
-        <v>0.0761904761904762</v>
+        <v>0.07456140350877193</v>
       </c>
       <c r="S6">
-        <v>0.3857142857142857</v>
+        <v>0.3947368421052632</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1183431952662722</v>
+        <v>0.1189189189189189</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03550295857988166</v>
+        <v>0.03243243243243243</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02958579881656805</v>
+        <v>0.02702702702702703</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1183431952662722</v>
+        <v>0.1297297297297297</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01183431952662722</v>
+        <v>0.01081081081081081</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1420118343195266</v>
+        <v>0.1351351351351351</v>
       </c>
       <c r="R7">
-        <v>0.07692307692307693</v>
+        <v>0.0918918918918919</v>
       </c>
       <c r="S7">
-        <v>0.4674556213017751</v>
+        <v>0.4540540540540541</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07798165137614679</v>
+        <v>0.07822410147991543</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.009174311926605505</v>
+        <v>0.008456659619450317</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05045871559633028</v>
+        <v>0.05496828752642706</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09403669724770643</v>
+        <v>0.09090909090909091</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01834862385321101</v>
+        <v>0.01902748414376321</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1880733944954129</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="R8">
-        <v>0.07798165137614679</v>
+        <v>0.08456659619450317</v>
       </c>
       <c r="S8">
-        <v>0.4839449541284404</v>
+        <v>0.4820295983086681</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1133333333333333</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="E9">
-        <v>0.006666666666666667</v>
+        <v>0.006289308176100629</v>
       </c>
       <c r="F9">
-        <v>0.06666666666666667</v>
+        <v>0.06289308176100629</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.12</v>
+        <v>0.119496855345912</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01333333333333333</v>
+        <v>0.01257861635220126</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1733333333333333</v>
+        <v>0.1761006289308176</v>
       </c>
       <c r="R9">
-        <v>0.1066666666666667</v>
+        <v>0.1069182389937107</v>
       </c>
       <c r="S9">
-        <v>0.38</v>
+        <v>0.389937106918239</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1281446540880503</v>
+        <v>0.1250919793966151</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01650943396226415</v>
+        <v>0.01766004415011038</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08333333333333333</v>
+        <v>0.08462104488594555</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08333333333333333</v>
+        <v>0.08462104488594555</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.0110062893081761</v>
+        <v>0.01103752759381899</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2075471698113208</v>
+        <v>0.2060338484179544</v>
       </c>
       <c r="R10">
-        <v>0.07783018867924528</v>
+        <v>0.08094186902133922</v>
       </c>
       <c r="S10">
-        <v>0.3922955974842767</v>
+        <v>0.3899926416482708</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1565836298932384</v>
+        <v>0.1607717041800643</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1067615658362989</v>
+        <v>0.1061093247588424</v>
       </c>
       <c r="K11">
-        <v>0.2135231316725979</v>
+        <v>0.2218649517684887</v>
       </c>
       <c r="L11">
-        <v>0.501779359430605</v>
+        <v>0.4919614147909968</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02135231316725979</v>
+        <v>0.01929260450160772</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7266666666666667</v>
+        <v>0.7116564417177914</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1466666666666667</v>
+        <v>0.1595092024539877</v>
       </c>
       <c r="K12">
-        <v>0.02666666666666667</v>
+        <v>0.0245398773006135</v>
       </c>
       <c r="L12">
-        <v>0.05333333333333334</v>
+        <v>0.05521472392638037</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04666666666666667</v>
+        <v>0.049079754601227</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.696969696969697</v>
+        <v>0.7027027027027027</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2424242424242424</v>
+        <v>0.2432432432432433</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.06060606060606061</v>
+        <v>0.05405405405405406</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.00975609756097561</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1804878048780488</v>
+        <v>0.1813953488372093</v>
       </c>
       <c r="I15">
-        <v>0.06829268292682927</v>
+        <v>0.06511627906976744</v>
       </c>
       <c r="J15">
-        <v>0.424390243902439</v>
+        <v>0.427906976744186</v>
       </c>
       <c r="K15">
-        <v>0.04390243902439024</v>
+        <v>0.04186046511627907</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.00975609756097561</v>
+        <v>0.009302325581395349</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04878048780487805</v>
+        <v>0.04651162790697674</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2146341463414634</v>
+        <v>0.2186046511627907</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009950248756218905</v>
+        <v>0.009345794392523364</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1890547263681592</v>
+        <v>0.1775700934579439</v>
       </c>
       <c r="I16">
-        <v>0.05472636815920398</v>
+        <v>0.05607476635514019</v>
       </c>
       <c r="J16">
-        <v>0.3980099502487562</v>
+        <v>0.4065420560747663</v>
       </c>
       <c r="K16">
-        <v>0.1144278606965174</v>
+        <v>0.1074766355140187</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.004975124378109453</v>
+        <v>0.01401869158878505</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.03980099502487562</v>
+        <v>0.04205607476635514</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1890547263681592</v>
+        <v>0.1869158878504673</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.009411764705882352</v>
+        <v>0.008849557522123894</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1623529411764706</v>
+        <v>0.163716814159292</v>
       </c>
       <c r="I17">
-        <v>0.08470588235294117</v>
+        <v>0.08628318584070796</v>
       </c>
       <c r="J17">
-        <v>0.4588235294117647</v>
+        <v>0.4557522123893805</v>
       </c>
       <c r="K17">
-        <v>0.08</v>
+        <v>0.0752212389380531</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.007058823529411765</v>
+        <v>0.00663716814159292</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.07294117647058823</v>
+        <v>0.06858407079646017</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1247058823529412</v>
+        <v>0.1349557522123894</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.01129943502824859</v>
+        <v>0.015</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1412429378531073</v>
+        <v>0.16</v>
       </c>
       <c r="I18">
-        <v>0.03954802259887006</v>
+        <v>0.04</v>
       </c>
       <c r="J18">
-        <v>0.5819209039548022</v>
+        <v>0.575</v>
       </c>
       <c r="K18">
-        <v>0.05084745762711865</v>
+        <v>0.05</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.02259887005649718</v>
+        <v>0.025</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.03954802259887006</v>
+        <v>0.035</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1129943502824859</v>
+        <v>0.1</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01415797317436662</v>
+        <v>0.01322199025748086</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2034277198211625</v>
+        <v>0.2066805845511482</v>
       </c>
       <c r="I19">
-        <v>0.06035767511177347</v>
+        <v>0.05984690327070286</v>
       </c>
       <c r="J19">
-        <v>0.3882265275707898</v>
+        <v>0.3820459290187891</v>
       </c>
       <c r="K19">
-        <v>0.1028315946348733</v>
+        <v>0.1092553931802366</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01788375558867362</v>
+        <v>0.0173973556019485</v>
       </c>
       <c r="N19">
-        <v>0.002980625931445604</v>
+        <v>0.002783576896311761</v>
       </c>
       <c r="O19">
-        <v>0.07377049180327869</v>
+        <v>0.07306889352818371</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1363636363636364</v>
+        <v>0.1356993736951983</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Merrimack_A.xlsx
+++ b/team_specific_matrix/Merrimack_A.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1861861861861862</v>
+        <v>0.1875</v>
       </c>
       <c r="C2">
-        <v>0.5555555555555556</v>
+        <v>0.5535714285714286</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.006006006006006006</v>
+        <v>0.005952380952380952</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -537,10 +537,10 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0.003003003003003003</v>
+        <v>0.002976190476190476</v>
       </c>
       <c r="P2">
-        <v>0.1561561561561562</v>
+        <v>0.1577380952380952</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09309309309309309</v>
+        <v>0.09226190476190477</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -560,7 +560,7 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <v>0.02072538860103627</v>
+        <v>0.02061855670103093</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.04145077720207254</v>
+        <v>0.04123711340206185</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.7150259067357513</v>
+        <v>0.7164948453608248</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2227979274611399</v>
+        <v>0.2216494845360825</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.7105263157894737</v>
+        <v>0.6923076923076923</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.2894736842105263</v>
+        <v>0.3076923076923077</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.07894736842105263</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.008771929824561403</v>
+        <v>0.008547008547008548</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.04385964912280702</v>
+        <v>0.04700854700854701</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2280701754385965</v>
+        <v>0.2264957264957265</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01754385964912281</v>
+        <v>0.0170940170940171</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1535087719298246</v>
+        <v>0.1495726495726496</v>
       </c>
       <c r="R6">
-        <v>0.07456140350877193</v>
+        <v>0.07264957264957266</v>
       </c>
       <c r="S6">
-        <v>0.3947368421052632</v>
+        <v>0.4017094017094017</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1189189189189189</v>
+        <v>0.1145833333333333</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03243243243243243</v>
+        <v>0.03125</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.02702702702702703</v>
+        <v>0.02604166666666667</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1297297297297297</v>
+        <v>0.125</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.01081081081081081</v>
+        <v>0.015625</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1351351351351351</v>
+        <v>0.140625</v>
       </c>
       <c r="R7">
-        <v>0.0918918918918919</v>
+        <v>0.09375</v>
       </c>
       <c r="S7">
-        <v>0.4540540540540541</v>
+        <v>0.453125</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.07822410147991543</v>
+        <v>0.07551020408163266</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.008456659619450317</v>
+        <v>0.00816326530612245</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>0.05496828752642706</v>
+        <v>0.05510204081632653</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.09090909090909091</v>
+        <v>0.08775510204081632</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01902748414376321</v>
+        <v>0.02244897959183673</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1818181818181818</v>
+        <v>0.1816326530612245</v>
       </c>
       <c r="R8">
-        <v>0.08456659619450317</v>
+        <v>0.08163265306122448</v>
       </c>
       <c r="S8">
-        <v>0.4820295983086681</v>
+        <v>0.4877551020408163</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1069182389937107</v>
+        <v>0.1017964071856287</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.01886792452830189</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="E9">
-        <v>0.006289308176100629</v>
+        <v>0.005988023952095809</v>
       </c>
       <c r="F9">
-        <v>0.06289308176100629</v>
+        <v>0.05988023952095808</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.119496855345912</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01257861635220126</v>
+        <v>0.01796407185628742</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1761006289308176</v>
+        <v>0.1676646706586826</v>
       </c>
       <c r="R9">
-        <v>0.1069182389937107</v>
+        <v>0.1137724550898204</v>
       </c>
       <c r="S9">
-        <v>0.389937106918239</v>
+        <v>0.4011976047904192</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1250919793966151</v>
+        <v>0.1232091690544413</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01766004415011038</v>
+        <v>0.01790830945558739</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0.08462104488594555</v>
+        <v>0.08452722063037249</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.08462104488594555</v>
+        <v>0.083810888252149</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01103752759381899</v>
+        <v>0.01217765042979943</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.2060338484179544</v>
+        <v>0.2041547277936963</v>
       </c>
       <c r="R10">
-        <v>0.08094186902133922</v>
+        <v>0.0830945558739255</v>
       </c>
       <c r="S10">
-        <v>0.3899926416482708</v>
+        <v>0.3911174785100286</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1607717041800643</v>
+        <v>0.1609907120743034</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1061093247588424</v>
+        <v>0.1021671826625387</v>
       </c>
       <c r="K11">
-        <v>0.2218649517684887</v>
+        <v>0.21671826625387</v>
       </c>
       <c r="L11">
-        <v>0.4919614147909968</v>
+        <v>0.5015479876160991</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.01929260450160772</v>
+        <v>0.01857585139318885</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7116564417177914</v>
+        <v>0.7034883720930233</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1595092024539877</v>
+        <v>0.1744186046511628</v>
       </c>
       <c r="K12">
-        <v>0.0245398773006135</v>
+        <v>0.02325581395348837</v>
       </c>
       <c r="L12">
-        <v>0.05521472392638037</v>
+        <v>0.05232558139534884</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.049079754601227</v>
+        <v>0.04651162790697674</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7027027027027027</v>
+        <v>0.6842105263157895</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2432432432432433</v>
+        <v>0.2631578947368421</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05405405405405406</v>
+        <v>0.05263157894736842</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.009302325581395349</v>
+        <v>0.013215859030837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1813953488372093</v>
+        <v>0.1806167400881057</v>
       </c>
       <c r="I15">
-        <v>0.06511627906976744</v>
+        <v>0.06167400881057269</v>
       </c>
       <c r="J15">
-        <v>0.427906976744186</v>
+        <v>0.4096916299559472</v>
       </c>
       <c r="K15">
-        <v>0.04186046511627907</v>
+        <v>0.03964757709251102</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009302325581395349</v>
+        <v>0.00881057268722467</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.04651162790697674</v>
+        <v>0.04845814977973568</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.2186046511627907</v>
+        <v>0.2378854625550661</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.009345794392523364</v>
+        <v>0.009259259259259259</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1775700934579439</v>
+        <v>0.1851851851851852</v>
       </c>
       <c r="I16">
-        <v>0.05607476635514019</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="J16">
-        <v>0.4065420560747663</v>
+        <v>0.4027777777777778</v>
       </c>
       <c r="K16">
-        <v>0.1074766355140187</v>
+        <v>0.1064814814814815</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01401869158878505</v>
+        <v>0.01388888888888889</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.04205607476635514</v>
+        <v>0.04166666666666666</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1869158878504673</v>
+        <v>0.1851851851851852</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.008849557522123894</v>
+        <v>0.008676789587852495</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.163716814159292</v>
+        <v>0.1626898047722343</v>
       </c>
       <c r="I17">
-        <v>0.08628318584070796</v>
+        <v>0.08459869848156182</v>
       </c>
       <c r="J17">
-        <v>0.4557522123893805</v>
+        <v>0.4577006507592191</v>
       </c>
       <c r="K17">
-        <v>0.0752212389380531</v>
+        <v>0.07592190889370933</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.00663716814159292</v>
+        <v>0.006507592190889371</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.06858407079646017</v>
+        <v>0.06724511930585683</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1349557522123894</v>
+        <v>0.1366594360086768</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.015</v>
+        <v>0.01435406698564593</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.16</v>
+        <v>0.1531100478468899</v>
       </c>
       <c r="I18">
-        <v>0.04</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="J18">
-        <v>0.575</v>
+        <v>0.5741626794258373</v>
       </c>
       <c r="K18">
-        <v>0.05</v>
+        <v>0.04784688995215311</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.025</v>
+        <v>0.02392344497607655</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.035</v>
+        <v>0.03349282296650718</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.1052631578947368</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01322199025748086</v>
+        <v>0.01269205076820307</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2066805845511482</v>
+        <v>0.2064128256513026</v>
       </c>
       <c r="I19">
-        <v>0.05984690327070286</v>
+        <v>0.0614562458249833</v>
       </c>
       <c r="J19">
-        <v>0.3820459290187891</v>
+        <v>0.3787575150300601</v>
       </c>
       <c r="K19">
-        <v>0.1092553931802366</v>
+        <v>0.1115564462257849</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.0173973556019485</v>
+        <v>0.01736806947227789</v>
       </c>
       <c r="N19">
-        <v>0.002783576896311761</v>
+        <v>0.002672010688042752</v>
       </c>
       <c r="O19">
-        <v>0.07306889352818371</v>
+        <v>0.072812291249165</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1356993736951983</v>
+        <v>0.1362725450901804</v>
       </c>
     </row>
   </sheetData>
